--- a/src/exel/ул. Туристская, д. 36, к. 2_250_600.xlsx
+++ b/src/exel/ул. Туристская, д. 36, к. 2_250_600.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2E2125-6AF3-4F32-AA0B-694A8F48FED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF25C96-931A-4BA3-8855-CBABC1EE9E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17910" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>номер дома:</t>
   </si>
   <si>
-    <t>ул. Туристская, д. 36, к. 2 ЖСК-1399</t>
+    <t>ул. Туристская, д. 36, к. 2</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <row r="5" spans="1:44" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="str">
         <f>CONCATENATE($AM$7,$A$1,$AP$7,$S$1,$AQ$7,$S$2,$AR$7,$S$3,$AN$7,D8,J8,P8,V8,AB8,D42,J42,P42,V42,AB42,D76,J76,P76,V76,AB76,D110,J110,P110,V110,AB110,D144,J144,P144,V144,AB144,D178,J178,P178,V178,AB178,$AO$7)</f>
-        <v>{"adress":"ул. Туристская, д. 36, к. 2 ЖСК-1399", "streetName":"", "streetType":"", "buildingNumber":"", "entrance":{"1" : {"long":[{"floor" : "1" , "roomStart" : "1" , "roomEnd" : "4"},{"floor" : "2" , "roomStart" : "5" , "roomEnd" : "9"},{"floor" : "3" , "roomStart" : "10" , "roomEnd" : "14"},{"floor" : "4" , "roomStart" : "15" , "roomEnd" : "19"},{"floor" : "5" , "roomStart" : "20" , "roomEnd" : "24"},{"floor" : "6" , "roomStart" : "25" , "roomEnd" : "29"},{"floor" : "7" , "roomStart" : "30" , "roomEnd" : "34"},{"floor" : "8" , "roomStart" : "35" , "roomEnd" : "39"},{"floor" : "9" , "roomStart" : "40" , "roomEnd" : "44"},{"floor" : "10" , "roomStart" : "45" , "roomEnd" : "49"},{"floor" : "11" , "roomStart" : "50" , "roomEnd" : "54"},{"floor" : "12" , "roomStart" : "55" , "roomEnd" : "59"},{"floor" : "13" , "roomStart" : "60" , "roomEnd" : "64"},{"floor" : "14" , "roomStart" : "65" , "roomEnd" : "69"},{"floor" : "15" , "roomStart" : "70" , "roomEnd" : "74"},{"floor" : "16" , "roomStart" : "75" , "roomEnd" : "79"},{"floor" : "17" , "roomStart" : "80" , "roomEnd" : "84"}], "short": {"start": "1", "end": "84"}}, "2" : {"long":[{"floor" : "1" , "roomStart" : "85" , "roomEnd" : "88"},{"floor" : "2" , "roomStart" : "89" , "roomEnd" : "93"},{"floor" : "3" , "roomStart" : "94" , "roomEnd" : "98"},{"floor" : "4" , "roomStart" : "99" , "roomEnd" : "103"},{"floor" : "5" , "roomStart" : "104" , "roomEnd" : "108"},{"floor" : "6" , "roomStart" : "109" , "roomEnd" : "113"},{"floor" : "7" , "roomStart" : "114" , "roomEnd" : "118"},{"floor" : "8" , "roomStart" : "119" , "roomEnd" : "123"},{"floor" : "9" , "roomStart" : "124" , "roomEnd" : "128"},{"floor" : "10" , "roomStart" : "129" , "roomEnd" : "133"},{"floor" : "11" , "roomStart" : "134" , "roomEnd" : "138"},{"floor" : "12" , "roomStart" : "139" , "roomEnd" : "143"},{"floor" : "13" , "roomStart" : "144" , "roomEnd" : "148"},{"floor" : "14" , "roomStart" : "149" , "roomEnd" : "153"},{"floor" : "15" , "roomStart" : "154" , "roomEnd" : "158"},{"floor" : "16" , "roomStart" : "159" , "roomEnd" : "163"},{"floor" : "17" , "roomStart" : "164" , "roomEnd" : "168"}], "short": {"start": "85", "end": "168"}}}}</v>
+        <v>{"adress":"ул. Туристская, д. 36, к. 2", "streetName":"", "streetType":"", "buildingNumber":"", "entrance":{"1" : {"long":[{"floor" : "1" , "roomStart" : "1" , "roomEnd" : "4"},{"floor" : "2" , "roomStart" : "5" , "roomEnd" : "9"},{"floor" : "3" , "roomStart" : "10" , "roomEnd" : "14"},{"floor" : "4" , "roomStart" : "15" , "roomEnd" : "19"},{"floor" : "5" , "roomStart" : "20" , "roomEnd" : "24"},{"floor" : "6" , "roomStart" : "25" , "roomEnd" : "29"},{"floor" : "7" , "roomStart" : "30" , "roomEnd" : "34"},{"floor" : "8" , "roomStart" : "35" , "roomEnd" : "39"},{"floor" : "9" , "roomStart" : "40" , "roomEnd" : "44"},{"floor" : "10" , "roomStart" : "45" , "roomEnd" : "49"},{"floor" : "11" , "roomStart" : "50" , "roomEnd" : "54"},{"floor" : "12" , "roomStart" : "55" , "roomEnd" : "59"},{"floor" : "13" , "roomStart" : "60" , "roomEnd" : "64"},{"floor" : "14" , "roomStart" : "65" , "roomEnd" : "69"},{"floor" : "15" , "roomStart" : "70" , "roomEnd" : "74"},{"floor" : "16" , "roomStart" : "75" , "roomEnd" : "79"},{"floor" : "17" , "roomStart" : "80" , "roomEnd" : "84"}], "short": {"start": "1", "end": "84"}}, "2" : {"long":[{"floor" : "1" , "roomStart" : "85" , "roomEnd" : "88"},{"floor" : "2" , "roomStart" : "89" , "roomEnd" : "93"},{"floor" : "3" , "roomStart" : "94" , "roomEnd" : "98"},{"floor" : "4" , "roomStart" : "99" , "roomEnd" : "103"},{"floor" : "5" , "roomStart" : "104" , "roomEnd" : "108"},{"floor" : "6" , "roomStart" : "109" , "roomEnd" : "113"},{"floor" : "7" , "roomStart" : "114" , "roomEnd" : "118"},{"floor" : "8" , "roomStart" : "119" , "roomEnd" : "123"},{"floor" : "9" , "roomStart" : "124" , "roomEnd" : "128"},{"floor" : "10" , "roomStart" : "129" , "roomEnd" : "133"},{"floor" : "11" , "roomStart" : "134" , "roomEnd" : "138"},{"floor" : "12" , "roomStart" : "139" , "roomEnd" : "143"},{"floor" : "13" , "roomStart" : "144" , "roomEnd" : "148"},{"floor" : "14" , "roomStart" : "149" , "roomEnd" : "153"},{"floor" : "15" , "roomStart" : "154" , "roomEnd" : "158"},{"floor" : "16" , "roomStart" : "159" , "roomEnd" : "163"},{"floor" : "17" , "roomStart" : "164" , "roomEnd" : "168"}], "short": {"start": "85", "end": "168"}}}}</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="23" t="s">
